--- a/Inventory/Templates/Шаблон для инвентаризации компьютеров.xlsx
+++ b/Inventory/Templates/Шаблон для инвентаризации компьютеров.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetz2\source\repos\Inventory\Inventory\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCBCB13-97A2-49B7-9725-EBC881D8DAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A5114-7EFF-4B3D-893B-D62C1AB404B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Computes">Sheet1!$A$3:$D$4</definedName>
+    <definedName name="Computes">Sheet1!$A$3:$E$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>{{item.Inventory_number}}</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Тип</t>
   </si>
   <si>
-    <t>Статус</t>
-  </si>
-  <si>
     <t>{{item.Peripheral.Name}}</t>
-  </si>
-  <si>
-    <t>{{item.Statuses_peripherals.Name}}</t>
   </si>
   <si>
     <t>{{item.Ip_address}}</t>
@@ -594,10 +588,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -607,16 +601,15 @@
     <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -624,29 +617,23 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
